--- a/biology/Botanique/Lac_de_Reynerie/Lac_de_Reynerie.xlsx
+++ b/biology/Botanique/Lac_de_Reynerie/Lac_de_Reynerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Bellefontaine ou plus simplement Bellefontaine est un parc situé dans le quartier Bellefontaine de Toulouse. Il ne doit pas être confondu avec le parc de Reynerie, qui désigne spécifiquement l'ancien jardin à la française enclavé dans le parc Bellefontaine.
 Sur les autres projets Wikimedia :
